--- a/Input/Template/Other Info.xlsx
+++ b/Input/Template/Other Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\Input\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Projects\自動生成老師監考時間表\使用手冊\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A30E50-5036-4748-ACEA-EBB0FD7DD0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72592E1F-85B1-4A6E-8D63-BC3266D102A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科目名稱對照" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>科目中文名</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>班主任</t>
+  </si>
+  <si>
+    <t>體育</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -761,16 +767,16 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.875" customWidth="1"/>
-    <col min="4" max="5" width="9.125" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,7 +784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -786,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -794,7 +800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -802,7 +808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -810,7 +816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -818,7 +824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -826,7 +832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -834,7 +840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -842,7 +848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -850,7 +856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -858,7 +864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -866,7 +872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
@@ -874,7 +880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
@@ -882,7 +888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -890,7 +896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
@@ -898,7 +904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -906,7 +912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -914,7 +920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
@@ -922,7 +928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
@@ -930,7 +936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
@@ -938,7 +944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -946,51 +952,55 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="10"/>
     </row>
@@ -1008,12 +1018,12 @@
       <selection activeCell="B29" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1021,191 +1031,191 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
@@ -1222,12 +1232,12 @@
       <selection activeCell="B29" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1235,191 +1245,191 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
